--- a/dialogue - Copy.xlsx
+++ b/dialogue - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DF24E6-7713-424B-9541-C84CE8C938F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F236484-B829-424E-902C-4B54AB3DF99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>-1001170310837</v>
+        <v>-1001274866902</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>-1001170310837</v>
+        <v>-1001274866902</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>-1001170310837</v>
+        <v>-1001274866902</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -454,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>-1001170310837</v>
+        <v>-1001274866902</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>-1001170310837</v>
+        <v>-1001274866902</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>-1001159430667</v>
+        <v>-563690107</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>-1001159430667</v>
+        <v>-563690107</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>-1001159430667</v>
+        <v>-563690107</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>-1001159430667</v>
+        <v>-563690107</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>-1001159430667</v>
+        <v>-563690107</v>
       </c>
       <c r="D11">
         <v>2</v>
